--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$20</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,158 +45,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대자동차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스벨리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판토스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미라콤아이엔씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK C&amp;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대무백스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 물류 솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대코테</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG Cns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG 전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니코로지스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mw-r.com/kr/software/14?_gl=1*wyxtwm*_up*MQ..&amp;gclid=Cj0KCQjwtsy1BhD7ARIsAHOi4xYfdJv94iUjbIOFrFuhSiXb_4m9wDsHPInrgNjpI6fjH3L68c-meAUaAs32EALw_wcB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT(DX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대자동차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 지라 리모트 브렌치 삭제 
-* Next 페이지 라우터
+    <t>Entrue Consulting
+Smart Logistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 소프티어 신청(완료)
+* RFID 문의
+* 전문가 리뷰 ppt 만들기
 * 알고리즘
 * 자소서 한 개(채용 캘린더)
-* 피그마
 * 환불전화
-* RFID 문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로지스벨리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판토스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미라콤아이엔씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entrue Consulting
-Smart Logistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK C&amp;C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solution SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대무백스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT 물류 솔루션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털ICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로지스올</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT(DX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대코테</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG Cns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG 전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니코로지스</t>
+* 직무 상담 신청
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +270,15 @@
       <name val="G마켓 산스 TTF Medium"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -397,12 +435,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,18 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,6 +468,24 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,8 +505,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,78 +785,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6875" customWidth="1"/>
     <col min="13" max="13" width="14.8125" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
     <col min="16" max="16" width="14.8125" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="13.875" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -817,63 +865,63 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>45549</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="15"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -881,28 +929,28 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7">
         <v>45553</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -910,28 +958,28 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7">
         <v>45554</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="15"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -939,28 +987,28 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7">
         <v>45554</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -968,28 +1016,28 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
         <v>45554</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="15"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -997,28 +1045,28 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7">
         <v>45554</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="15"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1026,28 +1074,28 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
         <v>45560</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="15"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1055,201 +1103,225 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7">
         <v>45560</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>17</v>
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
+      <c r="H18" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45562</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45554</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:F20"/>
   <mergeCells count="7">
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A1:U2"/>
@@ -1260,7 +1332,10 @@
     <mergeCell ref="H4:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="6645"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$20</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -220,6 +215,7 @@
   <si>
     <t xml:space="preserve">* 소프티어 신청(완료)
 * RFID 문의
+* 알고리즘풀기
 * 전문가 리뷰 ppt 만들기
 * 알고리즘
 * 자소서 한 개(채용 캘린더)
@@ -232,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,24 +784,24 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
-    <col min="13" max="13" width="14.8125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="14.8125" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
     <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -828,7 +824,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:21" ht="17.25" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -851,7 +847,7 @@
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -902,7 +898,7 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -933,7 +929,7 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -962,7 +958,7 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" ht="13.15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -991,7 +987,7 @@
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1016,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1045,7 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1078,7 +1074,7 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1103,7 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1136,7 +1132,7 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1161,7 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1194,7 +1190,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1215,7 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1240,7 @@
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1259,7 +1255,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -1269,7 +1265,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1292,7 +1288,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1306,7 +1302,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="6645"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,14 +218,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">* 소프티어 신청(완료)
-* RFID 문의
-* 알고리즘풀기
-* 전문가 리뷰 ppt 만들기
-* 알고리즘
-* 자소서 한 개(채용 캘린더)
-* 환불전화
-* 직무 상담 신청
+    <t>BNK경남은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성SDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대모비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 알고리즘 풀기 9:30
+* api 완성 10:30 (월)
+* next  page 라우터 15:00
+* RFID 문의 15:00~15:30
+* 환불전화 15:00~15:30
+* 직무 상담 신청 질의 15:30
+* 알고리즘 풀기 16:00
+* 현차 반개 
+시계 플립 축구
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,8 +254,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,17 +807,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6875" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
@@ -801,7 +828,7 @@
     <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -824,7 +851,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" ht="17.25" thickBot="1">
+    <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -847,7 +874,7 @@
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -898,22 +925,22 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1">
+    <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C4" s="7">
-        <v>45549</v>
+        <v>45546</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -929,15 +956,15 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>45553</v>
+        <v>45549</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -958,15 +985,15 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:21" ht="13.15" customHeight="1">
+    <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="7">
-        <v>45554</v>
+        <v>45553</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -987,15 +1014,15 @@
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7">
-        <v>45554</v>
+        <v>45553</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1016,13 +1043,11 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>45554</v>
       </c>
@@ -1045,12 +1070,12 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="7">
         <v>45554</v>
@@ -1074,15 +1099,15 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
-        <v>45560</v>
+        <v>45554</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1103,15 +1128,15 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7">
-        <v>45560</v>
+        <v>45554</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1132,15 +1157,15 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45554</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1161,15 +1186,15 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45554</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1190,12 +1215,16 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45560</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1215,12 +1244,16 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45560</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1240,12 +1273,16 @@
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,81 +1292,125 @@
       <c r="J16" s="19"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7">
-        <v>45562</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="L20" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="7">
-        <v>45554</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F20"/>
+  <autoFilter ref="A3:F20">
+    <sortState ref="A4:F24">
+      <sortCondition ref="C3:C20"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="7">
+    <mergeCell ref="H4:J20"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A1:U2"/>
     <mergeCell ref="K3:K16"/>
     <mergeCell ref="L11:S15"/>
     <mergeCell ref="S3:U10"/>
     <mergeCell ref="T11:U15"/>
-    <mergeCell ref="H4:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
+    <hyperlink ref="L20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,15 +239,26 @@
   </si>
   <si>
     <t xml:space="preserve">* 알고리즘 풀기 9:30
-* api 완성 10:30 (월)
-* next  page 라우터 15:00
+* next  page 라우터 14:00
+* 10문제 스크립트 짜기 
 * RFID 문의 15:00~15:30
-* 환불전화 15:00~15:30
 * 직무 상담 신청 질의 15:30
-* 알고리즘 풀기 16:00
-* 현차 반개 
+* 삼성 반개 
 시계 플립 축구
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 알고리즘
+스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데이노베이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFG리테일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +519,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,11 +537,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -829,50 +843,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="A1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
@@ -894,12 +910,12 @@
         <v>5</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="9" t="s">
         <v>40</v>
       </c>
@@ -921,9 +937,9 @@
       <c r="R3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
@@ -939,12 +955,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -952,9 +968,9 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
@@ -970,10 +986,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="17"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -981,9 +997,9 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
@@ -999,10 +1015,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1010,9 +1026,9 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
@@ -1028,10 +1044,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1039,9 +1055,9 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
@@ -1055,10 +1071,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1066,9 +1082,9 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
@@ -1084,10 +1100,10 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="17"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1095,9 +1111,9 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
@@ -1113,10 +1129,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1124,9 +1140,9 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
@@ -1142,20 +1158,20 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
@@ -1171,20 +1187,20 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
@@ -1200,20 +1216,20 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
@@ -1229,20 +1245,20 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
@@ -1258,20 +1274,20 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
@@ -1287,10 +1303,10 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
@@ -1305,9 +1321,9 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
@@ -1320,9 +1336,9 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
@@ -1333,9 +1349,9 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
@@ -1346,9 +1362,9 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="L20" s="13" t="s">
         <v>35</v>
       </c>
@@ -1392,6 +1408,30 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7">
+        <v>45554</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7">
+        <v>45554</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:F20">

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE88E3-D823-420B-A2A5-5275E5C7CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="6645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,34 +239,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>롯데이노베이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFG리테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 알고리즘
+스크립트 
+4km 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">* 알고리즘 풀기 9:30
 * next  page 라우터 14:00
 * 10문제 스크립트 짜기 
 * RFID 문의 15:00~15:30
-* 직무 상담 신청 질의 15:30
 * 삼성 반개 
 시계 플립 축구
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일 알고리즘
-스크립트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데이노베이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFG리테일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -522,7 +523,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,10 +536,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,77 +821,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6875" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,7 +916,7 @@
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="9" t="s">
         <v>40</v>
       </c>
@@ -937,11 +938,11 @@
       <c r="R3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
@@ -956,11 +957,11 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="19"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -968,11 +969,11 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -989,7 +990,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -997,11 +998,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1018,7 +1019,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1026,11 +1027,11 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -1047,7 +1048,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1055,11 +1056,11 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1082,11 +1083,11 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1103,7 +1104,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="19"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1111,11 +1112,11 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1132,7 +1133,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1140,11 +1141,11 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1161,19 +1162,19 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1190,19 +1191,19 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -1219,19 +1220,19 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1248,19 +1249,19 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1277,19 +1278,19 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1306,9 +1307,9 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1325,7 +1326,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1340,7 +1341,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +1354,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1380,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1390,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1400,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1409,9 +1410,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7">
@@ -1421,9 +1422,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7">
@@ -1434,8 +1435,8 @@
       <c r="F26" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20">
-    <sortState ref="A4:F24">
+  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F24">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1450,7 +1451,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1"/>
+    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE88E3-D823-420B-A2A5-5275E5C7CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,15 +57,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생산관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현대자동차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,10 +211,6 @@
   </si>
   <si>
     <t>BNK경남은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,20 +240,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>지원완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">* 알고리즘 풀기 9:30
 * next  page 라우터 14:00
+* 2년치 데이터 짜기 
+* RFID 문의 15:00~15:30
+* 코테 풀기 
 * 10문제 스크립트 짜기 
-* RFID 문의 15:00~15:30
 * 삼성 반개 
 시계 플립 축구
-</t>
+래디스 케싱 대용량 
+노드벨런싱 대용량 데이터 처리
+서버-사이드 이벤트(Server-Sent Events, SSE)
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -821,31 +825,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6875" customWidth="1"/>
+    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A1" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -868,7 +872,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="43.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -891,7 +895,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -918,36 +922,36 @@
       <c r="J3" s="18"/>
       <c r="K3" s="20"/>
       <c r="L3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7">
         <v>45546</v>
@@ -957,7 +961,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -973,12 +977,12 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7">
         <v>45549</v>
@@ -1002,12 +1006,12 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7">
         <v>45553</v>
@@ -1031,12 +1035,12 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C7" s="7">
         <v>45553</v>
@@ -1060,9 +1064,9 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
@@ -1087,12 +1091,12 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
         <v>45554</v>
@@ -1116,12 +1120,12 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7">
         <v>45554</v>
@@ -1145,12 +1149,12 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7">
         <v>45554</v>
@@ -1174,12 +1178,12 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <v>45554</v>
@@ -1203,12 +1207,12 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>45554</v>
@@ -1232,15 +1236,13 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="7">
-        <v>45560</v>
+        <v>45554</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1261,15 +1263,13 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="7">
-        <v>45560</v>
+        <v>45554</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1290,15 +1290,15 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45560</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1309,15 +1309,15 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45560</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1326,14 +1326,16 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1341,12 +1343,16 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1354,11 +1360,13 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1367,12 +1375,12 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="L20" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1380,9 +1388,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1390,9 +1398,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -1400,9 +1408,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1410,33 +1418,29 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="7">
-        <v>45554</v>
-      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="7">
-        <v>45554</v>
-      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F24">
+  <autoFilter ref="A3:F20">
+    <sortState ref="A4:F26">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1451,7 +1455,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,7 +239,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">* 알고리즘 풀기 9:30
+    <t>생산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 알고리즘 1문제 풀기 9:30
+* sql 1문제 풀기 
 * next  page 라우터 14:00
 * 2년치 데이터 짜기 
 * RFID 문의 15:00~15:30
@@ -258,20 +262,12 @@
  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>생산관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,7 +814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,13 +828,13 @@
       <selection activeCell="H4" sqref="H4:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6875" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
@@ -847,7 +843,7 @@
     <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21">
       <c r="A1" s="19" t="s">
         <v>51</v>
       </c>
@@ -872,7 +868,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="43.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -895,7 +891,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -946,7 +942,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -961,7 +957,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -977,12 +973,12 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7">
         <v>45549</v>
@@ -1006,7 +1002,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1035,12 +1031,12 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" ht="14.65" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7">
         <v>45553</v>
@@ -1064,7 +1060,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1091,7 +1087,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" ht="27">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1120,7 +1116,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1145,7 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1174,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1203,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1236,7 +1232,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1263,7 +1259,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1290,7 +1286,7 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1305,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1322,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1339,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1356,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1384,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1394,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1404,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1418,7 +1414,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1424,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5172087B809DB38197B6C3E8ECF82B352468A479" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FA1417-4160-49D5-BF35-00AE81B5B3F5}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,11 +245,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>생산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">* 알고리즘 풀기 9:30
 * next  page 라우터 14:00
 * 2년치 데이터 짜기 
 * RFID 문의 15:00~15:30
-* 코테 풀기 
 * 10문제 스크립트 짜기 
 * 삼성 반개 
 시계 플립 축구
@@ -258,19 +266,11 @@
  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>생산관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -825,29 +825,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J20"/>
+      <selection sqref="A1:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6875" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>51</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="43.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:21" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -895,7 +895,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -977,12 +977,12 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7">
         <v>45549</v>
@@ -1006,7 +1006,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1035,12 +1035,12 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7">
         <v>45553</v>
@@ -1064,7 +1064,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1439,8 +1439,8 @@
       <c r="F26" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20">
-    <sortState ref="A4:F26">
+  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F26">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1455,7 +1455,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1"/>
+    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5172087B809DB38197B6C3E8ECF82B352468A479" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FA1417-4160-49D5-BF35-00AE81B5B3F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,12 +252,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">* 알고리즘 풀기 9:30
-* next  page 라우터 14:00
-* 2년치 데이터 짜기 
-* RFID 문의 15:00~15:30
-* 10문제 스크립트 짜기 
-* 삼성 반개 
+    <t xml:space="preserve">내일 알고리즘, 페이지 다 만들기(API) 테일윈드
+* 알고리즘 풀기 9:30
+* 삼성 자소서
 시계 플립 축구
 래디스 케싱 대용량 
 노드벨런싱 대용량 데이터 처리
@@ -270,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -825,29 +821,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U2"/>
+      <selection activeCell="H4" sqref="H4:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6875" customWidth="1"/>
+    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A1" s="19" t="s">
         <v>51</v>
       </c>
@@ -872,7 +868,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="43.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -895,7 +891,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -946,7 +942,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -977,7 +973,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1002,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1031,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="14.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -1064,7 +1060,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1091,7 +1087,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1120,7 +1116,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1145,7 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1174,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1203,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1236,7 +1232,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1263,7 +1259,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1290,7 +1286,7 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1305,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1322,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1339,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1356,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1384,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1394,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1404,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1418,7 +1414,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1424,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1439,8 +1435,8 @@
       <c r="F26" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F26">
+  <autoFilter ref="A3:F20">
+    <sortState ref="A4:F26">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1455,7 +1451,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,12 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매일 알고리즘
-스크립트 
-4km 러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지원완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,14 +246,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">내일 알고리즘, 페이지 다 만들기(API) 테일윈드
-* 알고리즘 풀기 9:30
-* 삼성 자소서
+    <t xml:space="preserve">
+ 테일윈드
+* 페이지 다 만들기 (api 정리)
+* 삼성 자소서 필요사항 저장
+* 알고리즘 비트마스킹 리뷰
 시계 플립 축구
 래디스 케싱 대용량 
 노드벨런싱 대용량 데이터 처리
 서버-사이드 이벤트(Server-Sent Events, SSE)
  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 알고리즘
+스크립트 
+4km 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 올리브 네트웍스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J20"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -845,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A1" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -957,7 +963,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -978,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7">
         <v>45549</v>
@@ -1036,7 +1042,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7">
         <v>45553</v>
@@ -1324,13 +1330,11 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7">
+        <v>45569</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1341,13 +1345,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1358,12 +1362,14 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1376,9 +1382,11 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1386,7 +1394,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1396,7 +1404,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -1406,7 +1414,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1416,7 +1424,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -1426,7 +1434,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -1434,9 +1442,19 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:F20">
-    <sortState ref="A4:F26">
+    <sortState ref="A4:F27">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +238,48 @@
   </si>
   <si>
     <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 알고리즘
+스크립트 
+4km 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 올리브 네트웍스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자기소개서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후 자소설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머짤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오전 테일윈드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 자소설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,22 +295,12 @@
  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>매일 알고리즘
-스크립트 
-4km 러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ 올리브 네트웍스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,7 +847,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -831,16 +858,16 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6875" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
@@ -849,9 +876,9 @@
     <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21">
       <c r="A1" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -874,7 +901,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="43.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -897,7 +924,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -948,7 +975,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -963,14 +990,16 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="20"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -979,7 +1008,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -998,8 +1027,12 @@
       <c r="J5" s="15"/>
       <c r="K5" s="20"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1008,7 +1041,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1027,17 +1060,21 @@
       <c r="J6" s="15"/>
       <c r="K6" s="20"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="14.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" ht="14.85" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -1057,8 +1094,12 @@
       <c r="K7" s="20"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1066,7 +1107,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1093,7 +1134,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" ht="27">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1154,9 @@
       <c r="K9" s="20"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1122,7 +1165,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1194,7 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1223,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1252,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1238,7 +1281,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1265,7 +1308,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1292,7 +1335,7 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1354,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1328,9 +1371,9 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
@@ -1343,7 +1386,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1403,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1435,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1445,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1455,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1422,7 +1465,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1432,7 +1475,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1485,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +154,6 @@
   </si>
   <si>
     <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,10 +227,6 @@
   </si>
   <si>
     <t>BFG리테일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,23 +256,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오전 ppt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후 자소설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>머짤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">오전 테일윈드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppt 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,12 +276,56 @@
  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">오전 sqld </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 코드리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시안 따고  api 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후 자소설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후 성적바꾸기?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 erd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -501,6 +526,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +593,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,7 +892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -857,11 +902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -869,62 +914,62 @@
     <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
     <col min="16" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
     <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-    </row>
-    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,20 +989,20 @@
         <v>5</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="20"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>31</v>
@@ -971,187 +1016,205 @@
       <c r="R3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7">
-        <v>45546</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>45545</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="20"/>
+      <c r="H4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="4"/>
+      <c r="N4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7">
-        <v>45549</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>45545</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7">
-        <v>45553</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>45546</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="20"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.85" customHeight="1">
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7">
-        <v>45553</v>
+        <v>45549</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="20"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>59</v>
+      <c r="N7" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="7">
-        <v>45554</v>
+        <v>45553</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="20"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="1:21" ht="27">
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="7">
-        <v>45554</v>
+        <v>45553</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
@@ -1161,17 +1224,15 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>45554</v>
       </c>
@@ -1179,10 +1240,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="20"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1190,16 +1251,16 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="7">
         <v>45554</v>
@@ -1208,27 +1269,27 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
         <v>45554</v>
@@ -1237,27 +1298,27 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7">
         <v>45554</v>
@@ -1266,26 +1327,28 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="7">
         <v>45554</v>
       </c>
@@ -1293,26 +1356,28 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" s="7">
         <v>45554</v>
       </c>
@@ -1320,122 +1385,120 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="7">
-        <v>45560</v>
+        <v>45554</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="7">
-        <v>45560</v>
+        <v>45554</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="7">
-        <v>45569</v>
+        <v>45560</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45560</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45562</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="L20" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7">
+        <v>45569</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1508,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1518,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1528,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1538,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1548,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5172087B5A6DFCAC5B68D72AF2CE23182E7F8EC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -899,29 +900,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="14" max="14" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
@@ -946,7 +947,7 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
     </row>
-    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -969,7 +970,7 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1021,7 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1058,7 @@
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1097,7 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
     </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1133,7 +1134,7 @@
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:21" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1167,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1198,7 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1229,7 @@
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1256,7 @@
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1285,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1314,7 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1343,7 @@
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1372,7 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1401,7 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
@@ -1417,7 +1418,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1432,7 +1433,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1449,7 +1450,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1467,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
@@ -1498,7 +1499,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1519,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1528,7 +1529,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +1539,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1548,7 +1549,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -1559,8 +1560,8 @@
       <c r="F27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20">
-    <sortState ref="A4:F27">
+  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F27">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1575,7 +1576,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1"/>
+    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5172087B5A6DFCAC5B68D72AF2CE23182E7F8EC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B387ABA-0C39-42AB-AA1B-1592466370E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +171,6 @@
   </si>
   <si>
     <t>LG이노텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,10 +192,6 @@
   </si>
   <si>
     <t>Solution SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -903,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -924,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -997,13 +989,13 @@
       <c r="J3" s="19"/>
       <c r="K3" s="21"/>
       <c r="L3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>31</v>
@@ -1032,13 +1024,13 @@
         <v>45545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -1046,10 +1038,10 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1069,10 +1061,10 @@
         <v>45545</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
@@ -1082,13 +1074,13 @@
       <c r="K5" s="21"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1099,16 +1091,16 @@
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7">
         <v>45546</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1119,14 +1111,14 @@
       <c r="K6" s="21"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1139,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7">
         <v>45549</v>
@@ -1155,10 +1147,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1172,7 +1164,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>45553</v>
@@ -1188,7 +1180,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1200,10 +1192,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7">
         <v>45553</v>
@@ -1219,7 +1211,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1231,7 +1223,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -1261,7 +1253,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7">
         <v>45554</v>
@@ -1290,7 +1282,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>45554</v>
@@ -1319,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7">
         <v>45554</v>
@@ -1377,7 +1369,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7">
         <v>45554</v>
@@ -1403,7 +1395,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
@@ -1420,7 +1412,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
@@ -1489,7 +1481,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B387ABA-0C39-42AB-AA1B-1592466370E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,10 +190,6 @@
   </si>
   <si>
     <t>IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNK경남은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,12 +303,20 @@
     <t>오전 api</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>BNK경남은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,38 +883,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
-    <col min="14" max="14" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21">
       <c r="A1" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -939,7 +937,7 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
     </row>
-    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -962,7 +960,7 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1011,7 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1024,13 +1022,13 @@
         <v>45545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -1038,10 +1036,10 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1050,7 +1048,7 @@
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1061,10 +1059,10 @@
         <v>45545</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
@@ -1074,13 +1072,13 @@
       <c r="K5" s="21"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1089,18 +1087,18 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
     </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7">
         <v>45546</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1111,14 +1109,14 @@
       <c r="K6" s="21"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1126,17 +1124,19 @@
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="14.85" customHeight="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="7">
         <v>45549</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
@@ -1147,10 +1147,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1159,7 +1159,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1190,12 +1190,12 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7">
         <v>45553</v>
@@ -1211,7 +1211,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1221,9 +1221,9 @@
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -1248,7 +1248,7 @@
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="27">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1393,9 +1393,9 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21">
       <c r="A16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
@@ -1410,9 +1410,9 @@
       <c r="J16" s="16"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
@@ -1425,7 +1425,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1479,9 +1479,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
@@ -1491,7 +1491,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -1552,8 +1552,8 @@
       <c r="F27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F27">
+  <autoFilter ref="A3:F20">
+    <sortState ref="A4:F27">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1568,7 +1568,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{573F43A6-F9E8-4B79-AA6D-BA0FDA048351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C9FCB2-DF85-43DD-B74B-D6CE674FD345}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +119,6 @@
   </si>
   <si>
     <t>로지스올</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대코테</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,10 +216,6 @@
   </si>
   <si>
     <t>생산관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,14 +226,6 @@
   </si>
   <si>
     <t>CJ 올리브 네트웍스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자기소개서 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,22 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">오전 sqld </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전 코드리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시안 따고  api 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppt 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>합격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,14 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오후 자소설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후 성적바꾸기?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오전 erd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,14 +275,70 @@
   </si>
   <si>
     <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGC&amp;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG이노택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGCNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발(페이지랑 연결까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빽엔드 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안써</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픽, gsat, 알고리즘 + sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it 교육</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -517,23 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,9 +589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -883,84 +885,84 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-    </row>
-    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -980,38 +982,38 @@
         <v>5</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="O3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1">
+        <v>27</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1022,146 +1024,144 @@
         <v>45545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="21"/>
+      <c r="H4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="14" t="s">
-        <v>56</v>
+      <c r="N4" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7">
         <v>45545</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="21"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-    </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7">
         <v>45546</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="21"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.85" customHeight="1" thickBot="1">
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7">
         <v>45549</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="21"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1169,33 +1169,37 @@
       <c r="C8" s="7">
         <v>45553</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="21"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="14" t="s">
-        <v>64</v>
+      <c r="M8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7">
         <v>45553</v>
@@ -1204,26 +1208,28 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="21"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="N9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -1233,27 +1239,31 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-    </row>
-    <row r="11" spans="1:21" ht="27">
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7">
         <v>45554</v>
@@ -1262,27 +1272,27 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>45554</v>
@@ -1291,27 +1301,27 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>45554</v>
@@ -1320,22 +1330,22 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1349,24 +1359,24 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
@@ -1378,24 +1388,24 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
@@ -1405,14 +1415,14 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
@@ -1421,11 +1431,11 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1438,11 +1448,11 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1455,13 +1465,13 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>12</v>
@@ -1472,16 +1482,16 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="L20" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
@@ -1491,17 +1501,21 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45588</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1525,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1521,9 +1535,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -1531,7 +1545,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1541,9 +1555,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -1552,8 +1566,8 @@
       <c r="F27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20">
-    <sortState ref="A4:F27">
+  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F27">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1568,7 +1582,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1"/>
+    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{573F43A6-F9E8-4B79-AA6D-BA0FDA048351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C9FCB2-DF85-43DD-B74B-D6CE674FD345}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{573F43A6-F9E8-4B79-AA6D-BA0FDA048351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24AFDBE-F7EF-4B25-B9E0-66621ECED0B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,11 +179,6 @@
   </si>
   <si>
     <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entrue Consulting
-Smart Logistic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,6 +326,22 @@
   </si>
   <si>
     <t>it 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entrue Consulting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -916,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1024,13 +1035,13 @@
         <v>45545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1038,10 +1049,10 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1061,10 +1072,10 @@
         <v>45545</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
@@ -1074,13 +1085,13 @@
       <c r="K5" s="20"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1091,16 +1102,16 @@
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7">
         <v>45546</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1111,12 +1122,12 @@
       <c r="K6" s="20"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1129,13 +1140,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7">
         <v>45549</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1146,11 +1157,11 @@
       <c r="K7" s="20"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1170,7 +1181,7 @@
         <v>45553</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1181,10 +1192,10 @@
       <c r="K8" s="20"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1196,7 +1207,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -1204,7 +1215,9 @@
       <c r="C9" s="7">
         <v>45553</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
@@ -1214,10 +1227,10 @@
       <c r="K9" s="20"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1229,7 +1242,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -1245,10 +1258,10 @@
       <c r="K10" s="20"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1258,17 +1271,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C11" s="7">
         <v>45554</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
@@ -1292,12 +1307,14 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>45554</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
@@ -1321,12 +1338,14 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>45554</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
@@ -1355,7 +1374,9 @@
       <c r="C14" s="7">
         <v>45554</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
@@ -1384,7 +1405,9 @@
       <c r="C15" s="7">
         <v>45554</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
@@ -1405,13 +1428,15 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>45554</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
@@ -1422,13 +1447,15 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>45554</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="H17" s="15"/>
@@ -1491,7 +1518,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
@@ -1503,10 +1530,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C22" s="7">
         <v>45588</v>
@@ -1520,7 +1547,9 @@
         <v>9</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{573F43A6-F9E8-4B79-AA6D-BA0FDA048351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24AFDBE-F7EF-4B25-B9E0-66621ECED0B0}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{573F43A6-F9E8-4B79-AA6D-BA0FDA048351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B484AF37-C314-463A-86F3-92FCE75129C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,10 @@
   </si>
   <si>
     <t>Entrue Consulting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 대한통운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1282,7 +1286,7 @@
         <v>45554</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1593,6 +1597,16 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{573F43A6-F9E8-4B79-AA6D-BA0FDA048351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B484AF37-C314-463A-86F3-92FCE75129C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,22 +97,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현대무백스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT 물류 솔루션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하나은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디지털ICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우리은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LG이노텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +174,6 @@
   </si>
   <si>
     <t>삼성SDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대모비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,20 +199,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>머짤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대 자소설</t>
+    <t>합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNK경남은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발(페이지랑 연결까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안써</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entrue Consulting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 대한통운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용연계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코 dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대무백스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대모비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알고리즘 1개 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 물류 솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfid 페이지까지완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스프링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGF 리테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGC&amp;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG CNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빽엔드 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픽, gsat, 알고리즘 + sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
  테일윈드
-* 페이지 다 만들기 (api 정리)
-* 삼성 자소서 필요사항 저장
-* 알고리즘 비트마스킹 리뷰
-시계 플립 축구
 래디스 케싱 대용량 
 노드벨런싱 대용량 데이터 처리
 서버-사이드 이벤트(Server-Sent Events, SSE)
@@ -245,114 +364,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>합격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전 erd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전 api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNK경남은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGC&amp;C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG이노택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGCNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGF리테일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발(페이지랑 연결까지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빽엔드 공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안써</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오픽, gsat, 알고리즘 + sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it 교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entrue Consulting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ 대한통운</t>
+    <t>토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,31 +926,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6875" customWidth="1"/>
+    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="15.8984375" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="17.4375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A1" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -954,7 +973,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -977,7 +996,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,33 +1023,33 @@
       <c r="J3" s="18"/>
       <c r="K3" s="20"/>
       <c r="L3" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -1039,47 +1058,47 @@
         <v>45545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="20"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="4"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7">
         <v>45545</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
@@ -1089,33 +1108,33 @@
       <c r="K5" s="20"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7">
         <v>45546</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1126,12 +1145,14 @@
       <c r="K6" s="20"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>48</v>
+      <c r="O6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1139,18 +1160,18 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>45549</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1161,11 +1182,11 @@
       <c r="K7" s="20"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1174,9 +1195,9 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1185,7 +1206,7 @@
         <v>45553</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1196,22 +1217,26 @@
       <c r="K8" s="20"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -1220,7 +1245,7 @@
         <v>45553</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1231,10 +1256,10 @@
       <c r="K9" s="20"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1244,15 +1269,17 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>45554</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="5"/>
@@ -1262,10 +1289,10 @@
       <c r="K10" s="20"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1275,18 +1302,18 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7">
         <v>45554</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1295,29 +1322,21 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
         <v>45554</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1326,29 +1345,21 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>45554</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1357,18 +1368,10 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>45554</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1388,20 +1391,12 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
@@ -1410,7 +1405,7 @@
         <v>45554</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1419,27 +1414,19 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>45554</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1449,16 +1436,16 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>45554</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1466,15 +1453,15 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
-        <v>45560</v>
+        <v>45558</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1483,15 +1470,13 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="7">
-        <v>45560</v>
+        <v>45558</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1500,15 +1485,15 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7">
-        <v>45562</v>
+        <v>45560</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1517,80 +1502,90 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="L20" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C21" s="7">
-        <v>45569</v>
+        <v>45560</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C22" s="7">
-        <v>45588</v>
+        <v>45562</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
-        <v>74</v>
+      <c r="C23" s="7">
+        <v>45569</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7">
+        <v>45569</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45588</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -1598,9 +1593,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -1608,24 +1603,43 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F27">
+  <autoFilter ref="A3:F20">
+    <sortState ref="A4:F30">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="H4:J20"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A1:U2"/>
     <mergeCell ref="K3:K16"/>
-    <mergeCell ref="L11:S15"/>
     <mergeCell ref="S3:U10"/>
     <mergeCell ref="T11:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8585877D-C45E-4AED-AA43-2744B7FCA7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="1860" yWindow="588" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,23 +356,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
- 테일윈드
-래디스 케싱 대용량 
-노드벨런싱 대용량 데이터 처리
-서버-사이드 이벤트(Server-Sent Events, SSE)
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토</t>
+SQLD 풀기
+알고리즘 힙 보기
+힙 풀기 
+알고리즘 스터디 한 문제 풀기
+자비 스프링 연결 페이지까지
+테일윈드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -926,29 +928,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6875" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="17.4375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>40</v>
       </c>
@@ -973,7 +975,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -996,7 +998,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>24</v>
@@ -1047,7 +1049,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1068,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1084,7 +1086,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1125,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -1160,7 +1162,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1197,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1236,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
@@ -1269,7 +1271,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
@@ -1302,7 +1304,7 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1327,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1350,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1373,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1394,7 +1396,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
@@ -1417,7 +1419,7 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1438,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -1453,7 +1455,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1472,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -1485,7 +1487,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>60</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -1519,7 +1521,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1545,7 +1547,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1557,7 +1559,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1573,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
@@ -1583,7 +1585,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1593,7 +1595,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1603,7 +1605,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1615,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
@@ -1624,8 +1626,8 @@
       <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F20">
-    <sortState ref="A4:F30">
+  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F30">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1639,7 +1641,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1"/>
+    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8585877D-C45E-4AED-AA43-2744B7FCA7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE1D15-C101-41BB-B1B3-F6AE7DEB0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="588" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,22 @@
 알고리즘 스터디 한 문제 풀기
 자비 스프링 연결 페이지까지
 테일윈드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfid 연결하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 두 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대무백스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1081,7 +1097,9 @@
         <v>70</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
@@ -1120,7 +1138,9 @@
         <v>71</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
@@ -1157,7 +1177,9 @@
         <v>69</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
@@ -1192,7 +1214,9 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE1D15-C101-41BB-B1B3-F6AE7DEB0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,299 +97,280 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG Cns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG 전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mw-r.com/kr/software/14?_gl=1*wyxtwm*_up*MQ..&amp;gclid=Cj0KCQjwtsy1BhD7ARIsAHOi4xYfdJv94iUjbIOFrFuhSiXb_4m9wDsHPInrgNjpI6fjH3L68c-meAUaAs32EALw_wcB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT(DX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성SDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데이노베이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFG리테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNK경남은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안써</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entrue Consulting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용연계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코 dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대모비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알고리즘 1개 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfid 페이지까지완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스프링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfid 연결하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 두 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대무백스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL 2문제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자소서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 힙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 명세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">디자인 (테일윈드 frameMotion)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌돌이 팔굽 4키로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 30프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 물류 솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS까지 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제까지 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL2문제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 1문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>하나은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우리은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로지스올</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG Cns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG 전자</t>
+    <t>CJ 올리브 네트웍스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대무백스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 대한통운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유니코로지스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.mw-r.com/kr/software/14?_gl=1*wyxtwm*_up*MQ..&amp;gclid=Cj0KCQjwtsy1BhD7ARIsAHOi4xYfdJv94iUjbIOFrFuhSiXb_4m9wDsHPInrgNjpI6fjH3L68c-meAUaAs32EALw_wcB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT(DX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화비전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solution SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성SDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데이노베이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFG리테일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일 알고리즘
-스크립트 
-4km 러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ 올리브 네트웍스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNK경남은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발(페이지랑 연결까지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안써</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entrue Consulting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ 대한통운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용연계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it 교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG이노텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스코 dx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd현대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대무백스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대모비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">알고리즘 1개 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT 물류 솔루션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 ICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rfid 페이지까지완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바스프링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGF 리테일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGC&amp;C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG CNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빽엔드 공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오픽, gsat, 알고리즘 + sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SQLD 풀기
-알고리즘 힙 보기
-힙 풀기 
-알고리즘 스터디 한 문제 풀기
-자비 스프링 연결 페이지까지
-테일윈드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rfid 연결하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql 두 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스코dx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대무백스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +417,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="G마켓 산스 TTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -464,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -591,6 +578,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,10 +657,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -944,219 +948,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6875" customWidth="1"/>
+    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="15.8984375" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45545</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-    </row>
-    <row r="2" spans="1:21" ht="43.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45545</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7">
-        <v>45545</v>
+        <v>45549</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>45546</v>
+        <v>45553</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1164,75 +1204,67 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R6" s="1"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>45549</v>
+        <v>45553</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="M7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="R7" s="1"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="7">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1240,38 +1272,32 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="7">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1279,32 +1305,25 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K9" s="19"/>
+      <c r="M9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="7">
         <v>45554</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1312,28 +1331,17 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K10" s="19"/>
+      <c r="M10" s="21"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="7">
         <v>45554</v>
@@ -1347,22 +1355,23 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K11" s="19"/>
+      <c r="M11" s="21"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <v>45554</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1370,22 +1379,23 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K12" s="19"/>
+      <c r="M12" s="21"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
         <v>45554</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1393,22 +1403,20 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>45554</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1416,78 +1424,68 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>45554</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" s="7">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
-        <v>45554</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1495,123 +1493,107 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C19" s="7">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="L20" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="7">
-        <v>45560</v>
+        <v>45569</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="7">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7">
-        <v>45569</v>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7">
-        <v>45569</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="7">
-        <v>45588</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -1619,53 +1601,22 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:F20" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F30">
+  <autoFilter ref="A1:F18">
+    <sortState ref="A4:F30">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="6">
-    <mergeCell ref="H4:J20"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:U2"/>
-    <mergeCell ref="K3:K16"/>
-    <mergeCell ref="S3:U10"/>
-    <mergeCell ref="T11:U15"/>
+  <mergeCells count="5">
+    <mergeCell ref="H2:J18"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:K14"/>
+    <mergeCell ref="S1:U8"/>
+    <mergeCell ref="T9:U13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5172087BB2EDBA9ED088B729EEC94B6F95F5A35F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,6 +642,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -658,15 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,29 +949,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6875" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,12 +991,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="9" t="s">
         <v>28</v>
       </c>
@@ -1017,11 +1018,11 @@
       <c r="R1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1039,14 +1040,14 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="14" t="s">
         <v>66</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1060,11 +1061,11 @@
       <c r="R2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1084,12 +1085,12 @@
         <v>55</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -1103,11 +1104,11 @@
       <c r="R3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1123,10 +1124,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="1"/>
       <c r="M4" s="3" t="s">
         <v>67</v>
@@ -1144,11 +1145,11 @@
       <c r="R4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1164,10 +1165,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="1"/>
       <c r="M5" s="3" t="s">
         <v>75</v>
@@ -1181,11 +1182,11 @@
       <c r="R5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1201,10 +1202,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1216,11 +1217,11 @@
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1238,10 +1239,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="1"/>
       <c r="M7" s="3" t="s">
         <v>68</v>
@@ -1251,11 +1252,11 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
@@ -1269,10 +1270,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="1"/>
       <c r="M8" s="3" t="s">
         <v>72</v>
@@ -1282,11 +1283,11 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1302,17 +1303,17 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="19"/>
-      <c r="M9" s="21" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="22"/>
+      <c r="M9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1328,15 +1329,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="19"/>
-      <c r="M10" s="21"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="22"/>
+      <c r="M10" s="15"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1352,15 +1353,15 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="19"/>
-      <c r="M11" s="21"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="22"/>
+      <c r="M11" s="15"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1376,15 +1377,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="19"/>
-      <c r="M12" s="21"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="22"/>
+      <c r="M12" s="15"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
@@ -1400,14 +1401,14 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -1421,12 +1422,12 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
@@ -1439,11 +1440,11 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1458,11 +1459,11 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -1473,11 +1474,11 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -1490,14 +1491,14 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
       <c r="L18" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
@@ -1511,7 +1512,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1526,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>80</v>
       </c>
@@ -1537,7 +1538,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>82</v>
       </c>
@@ -1549,7 +1550,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1561,7 +1562,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1572,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +1582,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1591,7 +1592,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
@@ -1602,8 +1603,8 @@
       <c r="F27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18">
-    <sortState ref="A4:F30">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F30">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1616,7 +1617,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/지원현황.xlsx
+++ b/지원현황.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757e15c0c53bc1ff/Desktop/itgorae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5172087BB2EDBA9ED088B729EEC94B6F95F5A35F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,35 +241,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">알고리즘 1개 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탈락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rfid 페이지까지완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바스프링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,13 +335,41 @@
   </si>
   <si>
     <t>유니코로지스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL 2문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘1 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">책읽기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정처기 2 회차 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,29 +948,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6875" customWidth="1"/>
+    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="15.8984375" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>22</v>
@@ -1022,7 +1021,7 @@
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1036,36 +1035,36 @@
         <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
       <c r="H2" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="22"/>
       <c r="L2" s="4"/>
       <c r="M2" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="S2" s="22"/>
       <c r="T2" s="22"/>
       <c r="U2" s="22"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="18"/>
@@ -1091,24 +1090,24 @@
       <c r="K3" s="22"/>
       <c r="L3" s="1"/>
       <c r="M3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="O3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1130,26 +1129,24 @@
       <c r="K4" s="22"/>
       <c r="L4" s="1"/>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1171,22 +1168,22 @@
       <c r="K5" s="22"/>
       <c r="L5" s="1"/>
       <c r="M5" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="1" t="s">
-        <v>53</v>
+      <c r="O5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1209,19 +1206,15 @@
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1235,7 +1228,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
@@ -1245,10 +1238,12 @@
       <c r="K7" s="22"/>
       <c r="L7" s="1"/>
       <c r="M7" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1256,7 +1251,7 @@
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
@@ -1276,10 +1271,12 @@
       <c r="K8" s="22"/>
       <c r="L8" s="1"/>
       <c r="M8" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1287,7 +1284,7 @@
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1308,12 +1305,15 @@
       <c r="J9" s="18"/>
       <c r="K9" s="22"/>
       <c r="M9" s="15" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -1478,12 +1478,12 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7">
         <v>45560</v>
@@ -1498,12 +1498,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7">
         <v>45560</v>
@@ -1512,7 +1512,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1526,9 +1526,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
@@ -1538,9 +1538,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
@@ -1550,7 +1550,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1592,9 +1592,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -1603,8 +1603,8 @@
       <c r="F27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F30">
+  <autoFilter ref="A1:F18">
+    <sortState ref="A4:F30">
       <sortCondition ref="C3:C20"/>
     </sortState>
   </autoFilter>
@@ -1617,7 +1617,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
